--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4389475.477712758</v>
+        <v>-4390141.839388899</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.90995058056213</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="I11" t="n">
-        <v>37.05034583237531</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.74993846779111</v>
+        <v>23.74993846779109</v>
       </c>
       <c r="T11" t="n">
         <v>18.92346735507959</v>
@@ -1427,10 +1427,10 @@
         <v>46.66056629594546</v>
       </c>
       <c r="V11" t="n">
-        <v>86.82170806664908</v>
+        <v>73.96029641293741</v>
       </c>
       <c r="W11" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>47.22089397726384</v>
       </c>
       <c r="T12" t="n">
+        <v>11.45560918177133</v>
+      </c>
+      <c r="U12" t="n">
+        <v>33.73864095187865</v>
+      </c>
+      <c r="V12" t="n">
+        <v>37.159921892716</v>
+      </c>
+      <c r="W12" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="U12" t="n">
-        <v>86.82170806664908</v>
-      </c>
-      <c r="V12" t="n">
-        <v>66.35948144930447</v>
-      </c>
-      <c r="W12" t="n">
-        <v>63.21558455432535</v>
       </c>
       <c r="X12" t="n">
         <v>13.82391541678436</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.90995058056228</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>36.90995058056272</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>37.05034583237528</v>
+        <v>37.05034583237529</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.74993846779108</v>
+        <v>23.74993846779109</v>
       </c>
       <c r="T14" t="n">
-        <v>18.92346735507958</v>
+        <v>18.92346735507959</v>
       </c>
       <c r="U14" t="n">
-        <v>46.66056629594535</v>
+        <v>46.66056629594541</v>
       </c>
       <c r="V14" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>86.82170806664908</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="T15" t="n">
+        <v>26.58477247055073</v>
+      </c>
+      <c r="U15" t="n">
+        <v>33.73864095187865</v>
+      </c>
+      <c r="V15" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="U15" t="n">
-        <v>33.73864095187862</v>
-      </c>
-      <c r="V15" t="n">
-        <v>37.15992189271597</v>
-      </c>
       <c r="W15" t="n">
-        <v>86.82170806664908</v>
+        <v>63.21558455432535</v>
       </c>
       <c r="X15" t="n">
-        <v>66.46435054894452</v>
+        <v>13.82391541678436</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.89528711133934</v>
+        <v>19.89528711133937</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.85365758915249</v>
+        <v>31.85365758915252</v>
       </c>
       <c r="T16" t="n">
-        <v>20.24917275860145</v>
+        <v>20.24917275860147</v>
       </c>
       <c r="U16" t="n">
-        <v>85.1672593926576</v>
+        <v>85.16725939265763</v>
       </c>
       <c r="V16" t="n">
-        <v>41.62001616176363</v>
+        <v>41.62001616176366</v>
       </c>
       <c r="W16" t="n">
-        <v>86.82170806664905</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="X16" t="n">
-        <v>18.43045638555625</v>
+        <v>18.43045638555628</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65227379148214</v>
+        <v>13.65227379148217</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.5379879932637</v>
+        <v>39.53798799326381</v>
       </c>
       <c r="C17" t="n">
-        <v>15.65624499660919</v>
+        <v>15.6562449966093</v>
       </c>
       <c r="D17" t="n">
-        <v>3.222907257657653</v>
+        <v>3.222907257657766</v>
       </c>
       <c r="E17" t="n">
-        <v>36.92965967706652</v>
+        <v>36.92965967706664</v>
       </c>
       <c r="F17" t="n">
-        <v>68.64999725544385</v>
+        <v>68.64999725544396</v>
       </c>
       <c r="G17" t="n">
-        <v>84.27671840285257</v>
+        <v>84.27671840285268</v>
       </c>
       <c r="H17" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694401</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.34721144119726</v>
+        <v>3.347211441197373</v>
       </c>
       <c r="X17" t="n">
-        <v>25.2334619101365</v>
+        <v>25.23346191013661</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.73631503388026</v>
+        <v>47.73631503388037</v>
       </c>
     </row>
     <row r="18">
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.036068026875117</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="T18" t="n">
-        <v>70.43649243822939</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>86.82170806664908</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>76.47256046510448</v>
       </c>
     </row>
     <row r="19">
@@ -2096,7 +2096,7 @@
         <v>84.27671840285257</v>
       </c>
       <c r="H20" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694389</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>70.43649243822937</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="T21" t="n">
-        <v>70.43649243822939</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>86.82170806664908</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>84.27671840285257</v>
       </c>
       <c r="H23" t="n">
-        <v>12.34718069694395</v>
+        <v>12.34718069694389</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R24" t="n">
         <v>86.82170806664892</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>86.82170806664892</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>86.82170806664892</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>86.82170806664892</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>70.43649243822921</v>
       </c>
       <c r="Y24" t="n">
-        <v>76.47256046510432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2567,7 +2567,7 @@
         <v>190.3599416880857</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9866628354944</v>
+        <v>205.9866628354945</v>
       </c>
       <c r="H26" t="n">
         <v>134.0571251295858</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39962953854973</v>
+        <v>14.39962953854962</v>
       </c>
       <c r="T26" t="n">
-        <v>9.573158425838068</v>
+        <v>9.573158425838219</v>
       </c>
       <c r="U26" t="n">
-        <v>37.31025736670405</v>
+        <v>37.31025736670473</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0404756572242</v>
+        <v>108.0404756572243</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0571558738391</v>
+        <v>125.0571558738392</v>
       </c>
       <c r="X26" t="n">
         <v>146.9434063427784</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4462594665221</v>
+        <v>169.4462594665222</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.23793222424837</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3144462547806</v>
+        <v>26.43209898004555</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.105300252529811</v>
+        <v>2.105300252529839</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276399745649</v>
+        <v>24.38833202263716</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80961296347448</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86527562508383</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.473606487542838</v>
+        <v>4.473606487542867</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54497818209785</v>
+        <v>10.54497818209788</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50334865991099</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89886382935996</v>
+        <v>10.89886382935998</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81695046341611</v>
+        <v>75.81695046341613</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26970723252214</v>
+        <v>32.26970723252217</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47139913740756</v>
+        <v>77.47139913740759</v>
       </c>
       <c r="X28" t="n">
-        <v>9.080147456314762</v>
+        <v>9.080147456314791</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.301964862240652</v>
+        <v>4.301964862240681</v>
       </c>
     </row>
     <row r="29">
@@ -2795,22 +2795,22 @@
         <v>137.3661894292511</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9328516902996</v>
+        <v>124.9328516902995</v>
       </c>
       <c r="E29" t="n">
         <v>158.6396041097084</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3599416880858</v>
+        <v>190.3599416880857</v>
       </c>
       <c r="G29" t="n">
         <v>205.9866628354945</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0571251295859</v>
+        <v>134.0571251295858</v>
       </c>
       <c r="I29" t="n">
-        <v>27.70003690313277</v>
+        <v>27.70003690313379</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39962953854965</v>
+        <v>14.39962953854962</v>
       </c>
       <c r="T29" t="n">
-        <v>9.57315842583813</v>
+        <v>9.573158425838102</v>
       </c>
       <c r="U29" t="n">
-        <v>37.31025736670392</v>
+        <v>37.31025736670405</v>
       </c>
       <c r="V29" t="n">
         <v>108.0404756572243</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.66444185334537</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.105300252529867</v>
+        <v>2.105300252529839</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276399745649</v>
+        <v>24.38833202263716</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80961296347454</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86527562508388</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>94.71153871179098</v>
+        <v>4.473606487542867</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54497818209791</v>
+        <v>10.54497818209788</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50334865991105</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89886382936001</v>
+        <v>10.89886382935998</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81695046341616</v>
+        <v>75.81695046341613</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26970723252219</v>
+        <v>32.26970723252217</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47139913740762</v>
+        <v>77.47139913740759</v>
       </c>
       <c r="X31" t="n">
-        <v>9.080147456314819</v>
+        <v>9.080147456314791</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.301964862240709</v>
+        <v>4.301964862240681</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2479324259055</v>
+        <v>161.2479324259056</v>
       </c>
       <c r="C32" t="n">
-        <v>137.366189429251</v>
+        <v>137.3661894292511</v>
       </c>
       <c r="D32" t="n">
         <v>124.9328516902995</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6396041097083</v>
+        <v>158.6396041097084</v>
       </c>
       <c r="F32" t="n">
         <v>190.3599416880857</v>
@@ -3047,7 +3047,7 @@
         <v>134.0571251295858</v>
       </c>
       <c r="I32" t="n">
-        <v>27.70003690313374</v>
+        <v>27.70003690313468</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39962953854953</v>
+        <v>14.39962953854961</v>
       </c>
       <c r="T32" t="n">
-        <v>9.573158425838219</v>
+        <v>9.573158425838095</v>
       </c>
       <c r="U32" t="n">
-        <v>37.3102573667045</v>
+        <v>37.3102573667039</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0404756572242</v>
+        <v>108.0404756572243</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0571558738391</v>
+        <v>125.0571558738392</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9434063427783</v>
+        <v>146.9434063427784</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4462594665221</v>
+        <v>169.4462594665222</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4695228506099</v>
       </c>
       <c r="T33" t="n">
-        <v>2.105300252529754</v>
+        <v>13.81837077963117</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38833202263708</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V33" t="n">
-        <v>143.368701615285</v>
+        <v>27.80961296347451</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86527562508377</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.473606487542781</v>
+        <v>4.473606487542867</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.54497818209779</v>
+        <v>10.54497818209788</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50334865991094</v>
+        <v>22.50334865991102</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8988638293599</v>
+        <v>10.89886382935998</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81695046341605</v>
+        <v>75.81695046341613</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26970723252208</v>
+        <v>32.26970723252217</v>
       </c>
       <c r="W34" t="n">
-        <v>77.4713991374075</v>
+        <v>77.47139913740759</v>
       </c>
       <c r="X34" t="n">
-        <v>9.080147456314705</v>
+        <v>9.080147456314791</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.301964862240595</v>
+        <v>4.301964862240681</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>113.2919666061231</v>
       </c>
       <c r="D35" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E35" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F35" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G35" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H35" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I35" t="n">
-        <v>3.625814080005789</v>
+        <v>3.625814080005853</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.23603454357588</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V35" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W35" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X35" t="n">
         <v>122.8691835196504</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>28.15514764569899</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R36" t="n">
         <v>134.3144462547806</v>
       </c>
       <c r="S36" t="n">
-        <v>132.0351774388272</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995092212</v>
       </c>
       <c r="V36" t="n">
-        <v>3.735390140346482</v>
+        <v>3.735390140346567</v>
       </c>
       <c r="W36" t="n">
-        <v>29.79105280195583</v>
+        <v>29.79105280195591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>51.74272764028812</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V37" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W37" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>113.2919666061231</v>
       </c>
       <c r="D38" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E38" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F38" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H38" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I38" t="n">
-        <v>3.625814080005796</v>
+        <v>3.625814080005853</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.23603454357604</v>
+        <v>13.23603454357595</v>
       </c>
       <c r="V38" t="n">
-        <v>83.96625283409625</v>
+        <v>83.96625283409634</v>
       </c>
       <c r="W38" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X38" t="n">
         <v>122.8691835196504</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="39">
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R39" t="n">
-        <v>35.47216094542716</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995092212</v>
       </c>
       <c r="V39" t="n">
-        <v>3.735390140346482</v>
+        <v>3.735390140346567</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>204.901931930216</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>51.74272764028812</v>
+        <v>51.7427276402882</v>
       </c>
       <c r="V40" t="n">
-        <v>8.19548440939414</v>
+        <v>8.195484409394226</v>
       </c>
       <c r="W40" t="n">
-        <v>53.39717631427956</v>
+        <v>53.39717631427965</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.1737096027775</v>
+        <v>137.1737096027776</v>
       </c>
       <c r="C41" t="n">
-        <v>113.291966606123</v>
+        <v>113.2919666061231</v>
       </c>
       <c r="D41" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671716</v>
       </c>
       <c r="E41" t="n">
         <v>134.5653812865804</v>
       </c>
       <c r="F41" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649578</v>
       </c>
       <c r="G41" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H41" t="n">
         <v>109.9829023064578</v>
       </c>
       <c r="I41" t="n">
-        <v>3.62581408000576</v>
+        <v>3.625814080005824</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.23603454357585</v>
+        <v>13.23603454357627</v>
       </c>
       <c r="V41" t="n">
-        <v>83.96625283409622</v>
+        <v>83.96625283409631</v>
       </c>
       <c r="W41" t="n">
-        <v>100.9829330507111</v>
+        <v>100.9829330507112</v>
       </c>
       <c r="X41" t="n">
-        <v>122.8691835196503</v>
+        <v>122.8691835196504</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.3720366433941</v>
+        <v>145.3720366433942</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.036068026875117</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276399745649</v>
       </c>
       <c r="V42" t="n">
-        <v>3.735390140346453</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>117.0218758628849</v>
+        <v>65.26321374738329</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>51.74272764028809</v>
+        <v>51.74272764028817</v>
       </c>
       <c r="V43" t="n">
-        <v>8.195484409394112</v>
+        <v>8.195484409394197</v>
       </c>
       <c r="W43" t="n">
-        <v>53.39717631427953</v>
+        <v>53.39717631427962</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.1737096027776</v>
+        <v>137.1737096027777</v>
       </c>
       <c r="C44" t="n">
-        <v>113.2919666061231</v>
+        <v>113.2919666061232</v>
       </c>
       <c r="D44" t="n">
-        <v>100.8586288671715</v>
+        <v>100.8586288671717</v>
       </c>
       <c r="E44" t="n">
-        <v>134.5653812865804</v>
+        <v>134.5653812865805</v>
       </c>
       <c r="F44" t="n">
-        <v>166.2857188649577</v>
+        <v>166.2857188649579</v>
       </c>
       <c r="G44" t="n">
-        <v>181.9124400123664</v>
+        <v>181.9124400123665</v>
       </c>
       <c r="H44" t="n">
-        <v>109.9829023064578</v>
+        <v>109.9829023064579</v>
       </c>
       <c r="I44" t="n">
-        <v>3.625814080005817</v>
+        <v>3.625814080005924</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.2360345435759</v>
+        <v>13.23603454357602</v>
       </c>
       <c r="V44" t="n">
-        <v>83.96625283409628</v>
+        <v>83.96625283409639</v>
       </c>
       <c r="W44" t="n">
-        <v>100.9829330507112</v>
+        <v>100.9829330507113</v>
       </c>
       <c r="X44" t="n">
-        <v>122.8691835196504</v>
+        <v>122.8691835196505</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.3720366433942</v>
+        <v>145.3720366433943</v>
       </c>
     </row>
     <row r="45">
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>116.1023228951042</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276399745649</v>
+        <v>0.3141091995092781</v>
       </c>
       <c r="V45" t="n">
-        <v>58.80816742135887</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>29.79105280195586</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>51.74272764028814</v>
+        <v>51.74272764028826</v>
       </c>
       <c r="V46" t="n">
-        <v>8.195484409394169</v>
+        <v>8.195484409394282</v>
       </c>
       <c r="W46" t="n">
-        <v>53.39717631427959</v>
+        <v>53.3971763142797</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="C11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="D11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="E11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="F11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="G11" t="n">
-        <v>44.37032839520597</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="H11" t="n">
-        <v>44.37032839520597</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="I11" t="n">
         <v>6.945736645331927</v>
@@ -5045,22 +5045,22 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L11" t="n">
-        <v>92.89922763131452</v>
+        <v>55.57291794545656</v>
       </c>
       <c r="M11" t="n">
-        <v>178.8527186172971</v>
+        <v>138.5559862811134</v>
       </c>
       <c r="N11" t="n">
-        <v>264.8062096032797</v>
+        <v>224.509477267096</v>
       </c>
       <c r="O11" t="n">
-        <v>338.0066232220125</v>
+        <v>260.7654819184236</v>
       </c>
       <c r="P11" t="n">
-        <v>338.0066232220125</v>
+        <v>346.7189729044061</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.0066232220125</v>
+        <v>346.7189729044061</v>
       </c>
       <c r="R11" t="n">
         <v>347.2868322665963</v>
@@ -5075,16 +5075,16 @@
         <v>257.0504967930447</v>
       </c>
       <c r="V11" t="n">
-        <v>169.3518017762274</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="W11" t="n">
-        <v>81.65310675941015</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="X11" t="n">
-        <v>81.65310675941015</v>
+        <v>182.3431266789664</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.65310675941015</v>
+        <v>182.3431266789664</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>6.945736645331927</v>
       </c>
       <c r="M12" t="n">
-        <v>92.89922763131452</v>
+        <v>90.52050120316873</v>
       </c>
       <c r="N12" t="n">
         <v>176.4739921891513</v>
@@ -5142,19 +5142,19 @@
         <v>347.2868322665963</v>
       </c>
       <c r="R12" t="n">
-        <v>347.2868322665963</v>
+        <v>259.588137249779</v>
       </c>
       <c r="S12" t="n">
-        <v>347.2868322665963</v>
+        <v>211.8902645454721</v>
       </c>
       <c r="T12" t="n">
-        <v>259.588137249779</v>
+        <v>200.3189421396425</v>
       </c>
       <c r="U12" t="n">
-        <v>171.8894422329618</v>
+        <v>166.2395068347146</v>
       </c>
       <c r="V12" t="n">
-        <v>104.8596629912401</v>
+        <v>128.7042321956075</v>
       </c>
       <c r="W12" t="n">
         <v>41.00553717879024</v>
@@ -5203,7 +5203,7 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L13" t="n">
-        <v>92.89922763131452</v>
+        <v>6.945736645331927</v>
       </c>
       <c r="M13" t="n">
         <v>92.89922763131452</v>
@@ -5212,7 +5212,7 @@
         <v>178.8527186172971</v>
       </c>
       <c r="O13" t="n">
-        <v>178.8527186172971</v>
+        <v>231.4831741094508</v>
       </c>
       <c r="P13" t="n">
         <v>231.4831741094508</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.37032839520595</v>
+        <v>81.65310675941072</v>
       </c>
       <c r="C14" t="n">
-        <v>44.37032839520595</v>
+        <v>81.65310675941072</v>
       </c>
       <c r="D14" t="n">
-        <v>44.37032839520595</v>
+        <v>81.65310675941072</v>
       </c>
       <c r="E14" t="n">
-        <v>44.37032839520595</v>
+        <v>81.65310675941072</v>
       </c>
       <c r="F14" t="n">
-        <v>44.37032839520595</v>
+        <v>81.65310675941072</v>
       </c>
       <c r="G14" t="n">
         <v>44.37032839520595</v>
@@ -5276,28 +5276,28 @@
         <v>6.945736645331927</v>
       </c>
       <c r="J14" t="n">
-        <v>6.945736645331927</v>
+        <v>92.89922763131452</v>
       </c>
       <c r="K14" t="n">
-        <v>39.98907482946251</v>
+        <v>92.89922763131452</v>
       </c>
       <c r="L14" t="n">
-        <v>88.61625612958711</v>
+        <v>141.5264089314392</v>
       </c>
       <c r="M14" t="n">
-        <v>174.5697471155697</v>
+        <v>224.509477267096</v>
       </c>
       <c r="N14" t="n">
-        <v>252.0531322360299</v>
+        <v>301.9928623875563</v>
       </c>
       <c r="O14" t="n">
-        <v>338.0066232220125</v>
+        <v>338.2488670388838</v>
       </c>
       <c r="P14" t="n">
-        <v>338.0066232220125</v>
+        <v>338.2488670388838</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.0066232220125</v>
+        <v>338.2488670388838</v>
       </c>
       <c r="R14" t="n">
         <v>347.2868322665963</v>
@@ -5309,19 +5309,19 @@
         <v>304.1823819404643</v>
       </c>
       <c r="U14" t="n">
-        <v>257.0504967930448</v>
+        <v>257.0504967930447</v>
       </c>
       <c r="V14" t="n">
-        <v>169.3518017762275</v>
+        <v>257.0504967930447</v>
       </c>
       <c r="W14" t="n">
-        <v>81.65310675941026</v>
+        <v>169.351801776228</v>
       </c>
       <c r="X14" t="n">
-        <v>81.65310675941026</v>
+        <v>169.351801776228</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.65310675941026</v>
+        <v>169.351801776228</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>6.945736645331927</v>
       </c>
       <c r="M15" t="n">
-        <v>92.89922763131452</v>
+        <v>90.52050120316873</v>
       </c>
       <c r="N15" t="n">
-        <v>178.8527186172971</v>
+        <v>176.4739921891513</v>
       </c>
       <c r="O15" t="n">
         <v>262.4274831751339</v>
@@ -5382,22 +5382,22 @@
         <v>341.1897938556114</v>
       </c>
       <c r="S15" t="n">
-        <v>341.1897938556114</v>
+        <v>253.4910988387941</v>
       </c>
       <c r="T15" t="n">
-        <v>253.4910988387941</v>
+        <v>226.6377933129853</v>
       </c>
       <c r="U15" t="n">
-        <v>219.4116635338662</v>
+        <v>192.5583580080574</v>
       </c>
       <c r="V15" t="n">
-        <v>181.8763888947591</v>
+        <v>104.8596629912401</v>
       </c>
       <c r="W15" t="n">
-        <v>94.17769387794189</v>
+        <v>41.00553717879024</v>
       </c>
       <c r="X15" t="n">
-        <v>27.04198625274541</v>
+        <v>27.04198625274543</v>
       </c>
       <c r="Y15" t="n">
         <v>6.945736645331927</v>
@@ -5428,55 +5428,55 @@
         <v>6.945736645331927</v>
       </c>
       <c r="H16" t="n">
-        <v>6.945736645331927</v>
+        <v>44.2818695330615</v>
       </c>
       <c r="I16" t="n">
-        <v>6.945736645331927</v>
+        <v>44.2818695330615</v>
       </c>
       <c r="J16" t="n">
-        <v>6.945736645331927</v>
+        <v>127.0818720453273</v>
       </c>
       <c r="K16" t="n">
-        <v>92.89922763131452</v>
+        <v>127.0818720453273</v>
       </c>
       <c r="L16" t="n">
-        <v>92.89922763131452</v>
+        <v>127.0818720453273</v>
       </c>
       <c r="M16" t="n">
-        <v>178.8527186172971</v>
+        <v>127.0818720453273</v>
       </c>
       <c r="N16" t="n">
-        <v>221.4927217165541</v>
+        <v>213.0353630313099</v>
       </c>
       <c r="O16" t="n">
-        <v>307.4462127025367</v>
+        <v>221.4927217165544</v>
       </c>
       <c r="P16" t="n">
-        <v>307.4462127025367</v>
+        <v>307.446212702537</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.4462127025367</v>
+        <v>307.446212702537</v>
       </c>
       <c r="R16" t="n">
-        <v>307.7483064896376</v>
+        <v>307.7483064896379</v>
       </c>
       <c r="S16" t="n">
-        <v>275.572894783423</v>
+        <v>275.5728947834232</v>
       </c>
       <c r="T16" t="n">
-        <v>255.1191849262498</v>
+        <v>255.1191849262499</v>
       </c>
       <c r="U16" t="n">
-        <v>169.0916501861916</v>
+        <v>169.0916501861917</v>
       </c>
       <c r="V16" t="n">
-        <v>127.0512298207738</v>
+        <v>127.0512298207739</v>
       </c>
       <c r="W16" t="n">
-        <v>39.35253480395657</v>
+        <v>39.35253480395663</v>
       </c>
       <c r="X16" t="n">
-        <v>20.73591219228359</v>
+        <v>20.73591219228362</v>
       </c>
       <c r="Y16" t="n">
         <v>6.945736645331927</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.2616036014673</v>
+        <v>230.2616036014672</v>
       </c>
       <c r="C17" t="n">
-        <v>214.4472147160034</v>
+        <v>214.4472147160033</v>
       </c>
       <c r="D17" t="n">
-        <v>211.1917528395816</v>
+        <v>211.1917528395813</v>
       </c>
       <c r="E17" t="n">
-        <v>173.8890662970903</v>
+        <v>173.8890662970898</v>
       </c>
       <c r="F17" t="n">
-        <v>104.5456347259349</v>
+        <v>104.5456347259342</v>
       </c>
       <c r="G17" t="n">
-        <v>19.41763633921471</v>
+        <v>19.41763633921477</v>
       </c>
       <c r="H17" t="n">
         <v>6.945736645331927</v>
@@ -5519,43 +5519,43 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L17" t="n">
-        <v>55.57291794545653</v>
+        <v>55.57291794545656</v>
       </c>
       <c r="M17" t="n">
         <v>138.5559862811134</v>
       </c>
       <c r="N17" t="n">
-        <v>216.0393714015736</v>
+        <v>216.0393714015737</v>
       </c>
       <c r="O17" t="n">
-        <v>252.2953760529011</v>
+        <v>252.2953760529012</v>
       </c>
       <c r="P17" t="n">
-        <v>252.2953760529011</v>
+        <v>252.2953760529012</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.2953760529011</v>
+        <v>333.754058178933</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2953760529011</v>
+        <v>333.754058178933</v>
       </c>
       <c r="S17" t="n">
-        <v>252.2953760529011</v>
+        <v>333.754058178933</v>
       </c>
       <c r="T17" t="n">
-        <v>338.2488670388836</v>
+        <v>333.754058178933</v>
       </c>
       <c r="U17" t="n">
-        <v>338.2488670388836</v>
+        <v>333.754058178933</v>
       </c>
       <c r="V17" t="n">
         <v>347.2868322665963</v>
       </c>
       <c r="W17" t="n">
-        <v>343.9058106088212</v>
+        <v>343.9058106088213</v>
       </c>
       <c r="X17" t="n">
-        <v>318.4174652450471</v>
+        <v>318.417465245047</v>
       </c>
       <c r="Y17" t="n">
         <v>270.1989652108246</v>
@@ -5601,7 +5601,7 @@
         <v>6.945736645331927</v>
       </c>
       <c r="M18" t="n">
-        <v>92.89922763131452</v>
+        <v>90.52050120316873</v>
       </c>
       <c r="N18" t="n">
         <v>176.4739921891513</v>
@@ -5613,28 +5613,28 @@
         <v>347.2868322665963</v>
       </c>
       <c r="Q18" t="n">
-        <v>341.1897938556114</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="R18" t="n">
-        <v>253.4910988387941</v>
+        <v>259.588137249779</v>
       </c>
       <c r="S18" t="n">
-        <v>253.4910988387941</v>
+        <v>171.8894422329618</v>
       </c>
       <c r="T18" t="n">
-        <v>182.3431266789664</v>
+        <v>171.8894422329618</v>
       </c>
       <c r="U18" t="n">
-        <v>94.64443166214917</v>
+        <v>171.8894422329618</v>
       </c>
       <c r="V18" t="n">
-        <v>6.945736645331927</v>
+        <v>84.19074721614453</v>
       </c>
       <c r="W18" t="n">
-        <v>6.945736645331927</v>
+        <v>84.19074721614453</v>
       </c>
       <c r="X18" t="n">
-        <v>6.945736645331927</v>
+        <v>84.19074721614453</v>
       </c>
       <c r="Y18" t="n">
         <v>6.945736645331927</v>
@@ -5735,13 +5735,13 @@
         <v>211.1917528395818</v>
       </c>
       <c r="E20" t="n">
-        <v>173.8890662970904</v>
+        <v>173.8890662970903</v>
       </c>
       <c r="F20" t="n">
-        <v>104.545634725935</v>
+        <v>104.5456347259346</v>
       </c>
       <c r="G20" t="n">
-        <v>19.41763633921471</v>
+        <v>19.41763633921465</v>
       </c>
       <c r="H20" t="n">
         <v>6.945736645331927</v>
@@ -5756,28 +5756,28 @@
         <v>6.945736645331927</v>
       </c>
       <c r="L20" t="n">
-        <v>55.57291794545653</v>
+        <v>55.57291794545656</v>
       </c>
       <c r="M20" t="n">
         <v>138.5559862811134</v>
       </c>
       <c r="N20" t="n">
-        <v>224.509477267096</v>
+        <v>216.0393714015737</v>
       </c>
       <c r="O20" t="n">
-        <v>260.7654819184235</v>
+        <v>301.9928623875563</v>
       </c>
       <c r="P20" t="n">
-        <v>260.7654819184235</v>
+        <v>301.9928623875563</v>
       </c>
       <c r="Q20" t="n">
-        <v>260.7654819184235</v>
+        <v>301.9928623875563</v>
       </c>
       <c r="R20" t="n">
-        <v>260.7654819184235</v>
+        <v>301.9928623875563</v>
       </c>
       <c r="S20" t="n">
-        <v>346.718972904406</v>
+        <v>347.2868322665963</v>
       </c>
       <c r="T20" t="n">
         <v>347.2868322665963</v>
@@ -5792,7 +5792,7 @@
         <v>343.9058106088214</v>
       </c>
       <c r="X20" t="n">
-        <v>318.4174652450471</v>
+        <v>318.4174652450472</v>
       </c>
       <c r="Y20" t="n">
         <v>270.1989652108247</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.945736645331927</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="C21" t="n">
-        <v>6.945736645331927</v>
+        <v>94.64443166214917</v>
       </c>
       <c r="D21" t="n">
         <v>6.945736645331927</v>
@@ -5856,25 +5856,25 @@
         <v>341.1897938556114</v>
       </c>
       <c r="S21" t="n">
-        <v>253.4910988387941</v>
+        <v>341.1897938556114</v>
       </c>
       <c r="T21" t="n">
+        <v>270.0418216957837</v>
+      </c>
+      <c r="U21" t="n">
+        <v>270.0418216957837</v>
+      </c>
+      <c r="V21" t="n">
+        <v>270.0418216957837</v>
+      </c>
+      <c r="W21" t="n">
+        <v>270.0418216957837</v>
+      </c>
+      <c r="X21" t="n">
         <v>182.3431266789664</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>94.64443166214917</v>
-      </c>
-      <c r="V21" t="n">
-        <v>94.64443166214917</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6.945736645331927</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6.945736645331927</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6.945736645331927</v>
       </c>
     </row>
     <row r="22">
@@ -5972,13 +5972,13 @@
         <v>211.1917528395812</v>
       </c>
       <c r="E23" t="n">
-        <v>173.8890662970898</v>
+        <v>173.8890662970896</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5456347259343</v>
+        <v>104.545634725934</v>
       </c>
       <c r="G23" t="n">
-        <v>19.4176363392147</v>
+        <v>19.41763633921464</v>
       </c>
       <c r="H23" t="n">
         <v>6.945736645331914</v>
@@ -5990,25 +5990,25 @@
         <v>6.945736645331914</v>
       </c>
       <c r="K23" t="n">
-        <v>43.76960065884937</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="L23" t="n">
-        <v>92.39678195897397</v>
+        <v>55.57291794545655</v>
       </c>
       <c r="M23" t="n">
-        <v>175.3798502946308</v>
+        <v>138.5559862811134</v>
       </c>
       <c r="N23" t="n">
+        <v>216.0393714015736</v>
+      </c>
+      <c r="O23" t="n">
+        <v>252.2953760529012</v>
+      </c>
+      <c r="P23" t="n">
         <v>261.3333412806132</v>
       </c>
-      <c r="O23" t="n">
-        <v>347.2868322665957</v>
-      </c>
-      <c r="P23" t="n">
-        <v>347.2868322665957</v>
-      </c>
       <c r="Q23" t="n">
-        <v>347.2868322665957</v>
+        <v>261.3333412806132</v>
       </c>
       <c r="R23" t="n">
         <v>347.2868322665957</v>
@@ -6026,10 +6026,10 @@
         <v>347.2868322665957</v>
       </c>
       <c r="W23" t="n">
-        <v>343.9058106088207</v>
+        <v>343.9058106088208</v>
       </c>
       <c r="X23" t="n">
-        <v>318.4174652450465</v>
+        <v>318.4174652450466</v>
       </c>
       <c r="Y23" t="n">
         <v>270.198965210824</v>
@@ -6075,7 +6075,7 @@
         <v>6.945736645331914</v>
       </c>
       <c r="M24" t="n">
-        <v>92.89922763131435</v>
+        <v>90.52050120316841</v>
       </c>
       <c r="N24" t="n">
         <v>176.4739921891508</v>
@@ -6087,28 +6087,28 @@
         <v>347.2868322665957</v>
       </c>
       <c r="Q24" t="n">
-        <v>347.2868322665957</v>
+        <v>341.1897938556107</v>
       </c>
       <c r="R24" t="n">
-        <v>259.5881372497786</v>
+        <v>253.4910988387936</v>
       </c>
       <c r="S24" t="n">
-        <v>259.5881372497786</v>
+        <v>253.4910988387936</v>
       </c>
       <c r="T24" t="n">
-        <v>171.8894422329615</v>
+        <v>253.4910988387936</v>
       </c>
       <c r="U24" t="n">
-        <v>84.19074721614437</v>
+        <v>165.7924038219765</v>
       </c>
       <c r="V24" t="n">
-        <v>84.19074721614437</v>
+        <v>165.7924038219765</v>
       </c>
       <c r="W24" t="n">
-        <v>84.19074721614437</v>
+        <v>78.09370880515941</v>
       </c>
       <c r="X24" t="n">
-        <v>84.19074721614437</v>
+        <v>6.945736645331914</v>
       </c>
       <c r="Y24" t="n">
         <v>6.945736645331914</v>
@@ -6203,25 +6203,25 @@
         <v>1025.028630475681</v>
       </c>
       <c r="C26" t="n">
-        <v>886.274903779468</v>
+        <v>886.2749037794681</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0801040922967</v>
+        <v>760.0801040922969</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8380797390558</v>
+        <v>599.8380797390561</v>
       </c>
       <c r="F26" t="n">
-        <v>407.555310357151</v>
+        <v>407.5553103571513</v>
       </c>
       <c r="G26" t="n">
         <v>199.4879741596821</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07673665505001</v>
+        <v>64.07673665505003</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J26" t="n">
         <v>171.8193014227423</v>
@@ -6233,28 +6233,28 @@
         <v>636.7450330653273</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4390162733919</v>
+        <v>930.4390162733927</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.633316266261</v>
+        <v>1218.633316266262</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.600235789997</v>
+        <v>1465.600235789998</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U26" t="n">
         <v>1742.943003976964</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.2463278884991</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911652</v>
       </c>
       <c r="L27" t="n">
         <v>193.8402434614217</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1545813717194</v>
+        <v>377.1545813717195</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7405939045458</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9793531582078</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8387022496702</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7416638386852</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="R27" t="n">
-        <v>660.0705060055734</v>
+        <v>769.0425739598516</v>
       </c>
       <c r="S27" t="n">
-        <v>466.666947570614</v>
+        <v>769.0425739598516</v>
       </c>
       <c r="T27" t="n">
-        <v>464.5403816589677</v>
+        <v>766.9160080482053</v>
       </c>
       <c r="U27" t="n">
-        <v>224.9165028967809</v>
+        <v>742.2813292374607</v>
       </c>
       <c r="V27" t="n">
-        <v>196.8259847518572</v>
+        <v>499.2016111410948</v>
       </c>
       <c r="W27" t="n">
-        <v>142.4166154335907</v>
+        <v>229.8030418713861</v>
       </c>
       <c r="X27" t="n">
-        <v>137.8978210017292</v>
+        <v>225.2842474395246</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.2463278884991</v>
+        <v>214.6327543262944</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09690139935931</v>
+        <v>75.60100155464224</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09690139935931</v>
+        <v>75.60100155464224</v>
       </c>
       <c r="N28" t="n">
-        <v>107.7548021059632</v>
+        <v>270.786175784382</v>
       </c>
       <c r="O28" t="n">
-        <v>107.7548021059632</v>
+        <v>270.786175784382</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2272761573317</v>
+        <v>270.786175784382</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2272761573317</v>
+        <v>270.786175784382</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7861757843817</v>
+        <v>270.786175784382</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0555205723504</v>
+        <v>248.0555205723506</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0465672093605</v>
+        <v>237.0465672093607</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4637889634857</v>
+        <v>160.4637889634858</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8681250922512</v>
+        <v>127.8681250922513</v>
       </c>
       <c r="W28" t="n">
-        <v>49.6141865696173</v>
+        <v>49.61418656961737</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44232045212765</v>
+        <v>40.44232045212769</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2749037794674</v>
+        <v>886.2749037794686</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0801040922961</v>
+        <v>760.0801040922972</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8380797390553</v>
+        <v>599.8380797390564</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5553103571504</v>
+        <v>407.5553103571515</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4879741596812</v>
+        <v>199.4879741596824</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07673665504898</v>
+        <v>64.07673665505003</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J29" t="n">
         <v>171.8193014227423</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4069368927942</v>
+        <v>377.4069368927943</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7450330653272</v>
+        <v>636.7450330653273</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4390162733924</v>
+        <v>930.4390162733927</v>
       </c>
       <c r="N29" t="n">
         <v>1218.633316266261</v>
@@ -6479,34 +6479,34 @@
         <v>1465.600235789997</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976965</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.811210383808</v>
+        <v>1633.811210383809</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915284</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.063167740759</v>
+        <v>1359.06316774076</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.905329895787</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09690139935931</v>
+        <v>225.5091756663956</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911652</v>
       </c>
       <c r="L30" t="n">
         <v>193.8402434614217</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1545813717194</v>
+        <v>377.1545813717195</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7405939045458</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9793531582078</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8387022496702</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.7416638386852</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="R30" t="n">
-        <v>660.0705060055734</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="S30" t="n">
-        <v>466.666947570614</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="T30" t="n">
-        <v>464.5403816589676</v>
+        <v>793.6150979270392</v>
       </c>
       <c r="U30" t="n">
-        <v>224.9165028967809</v>
+        <v>768.9804191162946</v>
       </c>
       <c r="V30" t="n">
-        <v>196.8259847518571</v>
+        <v>525.9007010199286</v>
       </c>
       <c r="W30" t="n">
-        <v>142.4166154335905</v>
+        <v>256.50213175022</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74839451258952</v>
+        <v>251.9833373183585</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09690139935931</v>
+        <v>241.3318442051283</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="N31" t="n">
-        <v>185.5663313513468</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="O31" t="n">
-        <v>185.5663313513468</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5663313513468</v>
+        <v>189.5693754507278</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7861757843821</v>
+        <v>270.786175784382</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7861757843821</v>
+        <v>270.786175784382</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0555205723507</v>
+        <v>248.0555205723506</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0465672093608</v>
+        <v>237.0465672093607</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4637889634859</v>
+        <v>160.4637889634858</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8681250922514</v>
+        <v>127.8681250922513</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61418656961742</v>
+        <v>49.61418656961737</v>
       </c>
       <c r="X31" t="n">
-        <v>40.4423204521277</v>
+        <v>40.44232045212769</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.028630475681</v>
+        <v>1025.028630475682</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2749037794681</v>
+        <v>886.274903779469</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0801040922964</v>
+        <v>760.0801040922977</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8380797390557</v>
+        <v>599.8380797390569</v>
       </c>
       <c r="F32" t="n">
-        <v>407.555310357151</v>
+        <v>407.5553103571522</v>
       </c>
       <c r="G32" t="n">
-        <v>199.487974159682</v>
+        <v>199.4879741596831</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07673665504996</v>
+        <v>64.07673665505092</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8193014227424</v>
+        <v>171.8193014227423</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4069368927944</v>
+        <v>377.4069368927943</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7450330653262</v>
+        <v>636.7450330653273</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4390162733916</v>
+        <v>930.4390162733927</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.63331626626</v>
+        <v>1218.633316266262</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.600235789997</v>
+        <v>1465.600235789998</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.107239204595</v>
+        <v>1663.107239204596</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.308055083432</v>
+        <v>1786.308055083433</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.845069967965</v>
+        <v>1804.845069967966</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.299989625996</v>
+        <v>1790.299989625997</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.6301326302</v>
+        <v>1780.630132630201</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.943003976963</v>
+        <v>1742.943003976965</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.811210383807</v>
+        <v>1633.811210383809</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.490850915283</v>
+        <v>1507.490850915285</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.06316774076</v>
+        <v>1359.063167740761</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.905329895788</v>
+        <v>1187.905329895789</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5091756663956</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10393315911648</v>
+        <v>75.10393315911652</v>
       </c>
       <c r="L33" t="n">
         <v>193.8402434614217</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1545813717194</v>
+        <v>377.1545813717195</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7405939045458</v>
+        <v>583.7405939045459</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9793531582078</v>
+        <v>716.9793531582079</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8387022496702</v>
+        <v>801.8387022496704</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.7416638386852</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="R33" t="n">
-        <v>660.0705060055734</v>
+        <v>795.7416638386854</v>
       </c>
       <c r="S33" t="n">
-        <v>466.666947570614</v>
+        <v>602.338105403726</v>
       </c>
       <c r="T33" t="n">
-        <v>464.5403816589678</v>
+        <v>588.3801551212703</v>
       </c>
       <c r="U33" t="n">
-        <v>439.9057028482233</v>
+        <v>348.7562763590834</v>
       </c>
       <c r="V33" t="n">
-        <v>295.0888325297535</v>
+        <v>320.6657582141597</v>
       </c>
       <c r="W33" t="n">
-        <v>240.6794632114871</v>
+        <v>51.26718894445099</v>
       </c>
       <c r="X33" t="n">
-        <v>236.1606687796257</v>
+        <v>46.74839451258951</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.5091756663956</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
       <c r="N34" t="n">
-        <v>117.3137017330127</v>
+        <v>96.41344166368941</v>
       </c>
       <c r="O34" t="n">
-        <v>117.3137017330127</v>
+        <v>270.786175784382</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7861757843813</v>
+        <v>270.786175784382</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7861757843813</v>
+        <v>270.786175784382</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7861757843813</v>
+        <v>270.786175784382</v>
       </c>
       <c r="S34" t="n">
-        <v>248.05552057235</v>
+        <v>248.0555205723506</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0465672093603</v>
+        <v>237.0465672093607</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4637889634855</v>
+        <v>160.4637889634858</v>
       </c>
       <c r="V34" t="n">
-        <v>127.868125092251</v>
+        <v>127.8681250922513</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61418656961719</v>
+        <v>49.61418656961737</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44232045212759</v>
+        <v>40.44232045212769</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09690139935931</v>
+        <v>36.09690139935933</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>847.8611162930808</v>
+        <v>847.8611162930814</v>
       </c>
       <c r="C35" t="n">
-        <v>733.424786387906</v>
+        <v>733.4247863879064</v>
       </c>
       <c r="D35" t="n">
         <v>631.5473834917728</v>
@@ -6923,52 +6923,52 @@
         <v>495.6227559295704</v>
       </c>
       <c r="F35" t="n">
-        <v>327.657383338704</v>
+        <v>327.6573833387039</v>
       </c>
       <c r="G35" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H35" t="n">
-        <v>32.8136032186797</v>
+        <v>32.81360321867978</v>
       </c>
       <c r="I35" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J35" t="n">
-        <v>188.7070453723071</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K35" t="n">
-        <v>418.1281614372558</v>
+        <v>258.572280818976</v>
       </c>
       <c r="L35" t="n">
-        <v>701.2997382046856</v>
+        <v>307.1994621191006</v>
       </c>
       <c r="M35" t="n">
-        <v>784.2828065403424</v>
+        <v>506.3552765117428</v>
       </c>
       <c r="N35" t="n">
-        <v>861.7661916608026</v>
+        <v>818.3830570995082</v>
       </c>
       <c r="O35" t="n">
-        <v>1132.566591779435</v>
+        <v>1089.183457218141</v>
       </c>
       <c r="P35" t="n">
-        <v>1353.907075788931</v>
+        <v>1310.523941227636</v>
       </c>
       <c r="Q35" t="n">
-        <v>1391.25384111689</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="R35" t="n">
-        <v>1433.62433659632</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="S35" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="T35" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U35" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V35" t="n">
         <v>1359.374109037054</v>
@@ -6980,7 +6980,7 @@
         <v>1133.260859976083</v>
       </c>
       <c r="Y35" t="n">
-        <v>986.4204189221491</v>
+        <v>986.4204189221498</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.15116475402738</v>
+        <v>247.0029820975273</v>
       </c>
       <c r="C36" t="n">
-        <v>29.15116475402738</v>
+        <v>57.59070783049103</v>
       </c>
       <c r="D36" t="n">
-        <v>29.15116475402738</v>
+        <v>57.59070783049103</v>
       </c>
       <c r="E36" t="n">
-        <v>29.15116475402738</v>
+        <v>57.59070783049103</v>
       </c>
       <c r="F36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J36" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K36" t="n">
-        <v>68.15819651378456</v>
+        <v>68.1581965137846</v>
       </c>
       <c r="L36" t="n">
-        <v>186.8945068160897</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M36" t="n">
-        <v>370.2088447263874</v>
+        <v>370.2088447263876</v>
       </c>
       <c r="N36" t="n">
-        <v>576.7948572592139</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O36" t="n">
-        <v>710.0336165128759</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P36" t="n">
-        <v>794.8929656043383</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.7959271933534</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="R36" t="n">
-        <v>653.1247693602415</v>
+        <v>653.1247693602418</v>
       </c>
       <c r="S36" t="n">
-        <v>519.7559032604161</v>
+        <v>459.7212109252823</v>
       </c>
       <c r="T36" t="n">
-        <v>302.6401373973276</v>
+        <v>459.7212109252823</v>
       </c>
       <c r="U36" t="n">
-        <v>63.01625863514083</v>
+        <v>459.403928905576</v>
       </c>
       <c r="V36" t="n">
-        <v>59.24313728125549</v>
+        <v>455.6308075516906</v>
       </c>
       <c r="W36" t="n">
-        <v>29.15116475402738</v>
+        <v>425.5388350244624</v>
       </c>
       <c r="X36" t="n">
-        <v>29.15116475402738</v>
+        <v>425.5388350244624</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.15116475402738</v>
+        <v>425.5388350244624</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="L37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="M37" t="n">
-        <v>29.15116475402738</v>
+        <v>110.2389747987091</v>
       </c>
       <c r="N37" t="n">
-        <v>29.15116475402738</v>
+        <v>110.2389747987091</v>
       </c>
       <c r="O37" t="n">
-        <v>108.683809377124</v>
+        <v>110.2389747987091</v>
       </c>
       <c r="P37" t="n">
-        <v>108.683809377124</v>
+        <v>110.2389747987091</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.683809377124</v>
+        <v>110.2389747987091</v>
       </c>
       <c r="R37" t="n">
-        <v>142.0761895990707</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T37" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U37" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V37" t="n">
-        <v>83.0877064856229</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="38">
@@ -7148,64 +7148,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>847.8611162930807</v>
+        <v>847.8611162930808</v>
       </c>
       <c r="C38" t="n">
         <v>733.4247863879059</v>
       </c>
       <c r="D38" t="n">
-        <v>631.547383491773</v>
+        <v>631.5473834917728</v>
       </c>
       <c r="E38" t="n">
-        <v>495.6227559295705</v>
+        <v>495.6227559295704</v>
       </c>
       <c r="F38" t="n">
-        <v>327.6573833387041</v>
+        <v>327.6573833387039</v>
       </c>
       <c r="G38" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322731</v>
       </c>
       <c r="H38" t="n">
-        <v>32.8136032186797</v>
+        <v>32.81360321867978</v>
       </c>
       <c r="I38" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J38" t="n">
         <v>188.7070453723071</v>
       </c>
       <c r="K38" t="n">
-        <v>188.7070453723071</v>
+        <v>230.5083786496436</v>
       </c>
       <c r="L38" t="n">
-        <v>471.8786221397369</v>
+        <v>513.6799554170734</v>
       </c>
       <c r="M38" t="n">
-        <v>789.4060859426991</v>
+        <v>831.2074192200355</v>
       </c>
       <c r="N38" t="n">
-        <v>1010.556957087383</v>
+        <v>1143.235199807801</v>
       </c>
       <c r="O38" t="n">
-        <v>1046.81296173871</v>
+        <v>1179.491204459128</v>
       </c>
       <c r="P38" t="n">
-        <v>1268.153445748206</v>
+        <v>1400.831688468623</v>
       </c>
       <c r="Q38" t="n">
-        <v>1415.18774222194</v>
+        <v>1400.831688468623</v>
       </c>
       <c r="R38" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="S38" t="n">
-        <v>1457.558237701369</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T38" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U38" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V38" t="n">
         <v>1359.374109037054</v>
@@ -7214,10 +7214,10 @@
         <v>1257.371146359568</v>
       </c>
       <c r="X38" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y38" t="n">
-        <v>986.420418922149</v>
+        <v>986.4204189221491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K39" t="n">
-        <v>68.15819651378456</v>
+        <v>68.1581965137846</v>
       </c>
       <c r="L39" t="n">
-        <v>186.8945068160897</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M39" t="n">
-        <v>370.2088447263874</v>
+        <v>370.2088447263876</v>
       </c>
       <c r="N39" t="n">
-        <v>576.7948572592139</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O39" t="n">
-        <v>710.0336165128759</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P39" t="n">
-        <v>794.8929656043383</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q39" t="n">
-        <v>794.8929656043383</v>
+        <v>788.7959271933536</v>
       </c>
       <c r="R39" t="n">
-        <v>759.0625000028967</v>
+        <v>653.1247693602418</v>
       </c>
       <c r="S39" t="n">
-        <v>759.0625000028967</v>
+        <v>459.7212109252823</v>
       </c>
       <c r="T39" t="n">
-        <v>541.9467341398082</v>
+        <v>459.7212109252823</v>
       </c>
       <c r="U39" t="n">
-        <v>302.3228553776214</v>
+        <v>459.403928905576</v>
       </c>
       <c r="V39" t="n">
-        <v>298.5497340237361</v>
+        <v>455.6308075516906</v>
       </c>
       <c r="W39" t="n">
-        <v>29.15116475402738</v>
+        <v>248.659159137331</v>
       </c>
       <c r="X39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="L40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="M40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="N40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="O40" t="n">
-        <v>95.64020397329362</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="P40" t="n">
-        <v>95.64020397329362</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.64020397329362</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="R40" t="n">
-        <v>129.0325841952403</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S40" t="n">
-        <v>130.5877496168251</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T40" t="n">
-        <v>143.6313550206555</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U40" t="n">
-        <v>91.365973565819</v>
+        <v>91.36597356581919</v>
       </c>
       <c r="V40" t="n">
-        <v>83.0877064856229</v>
+        <v>83.087706485623</v>
       </c>
       <c r="W40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="41">
@@ -7388,61 +7388,61 @@
         <v>847.8611162930811</v>
       </c>
       <c r="C41" t="n">
-        <v>733.4247863879064</v>
+        <v>733.4247863879062</v>
       </c>
       <c r="D41" t="n">
-        <v>631.5473834917734</v>
+        <v>631.5473834917732</v>
       </c>
       <c r="E41" t="n">
-        <v>495.622755929571</v>
+        <v>495.6227559295706</v>
       </c>
       <c r="F41" t="n">
-        <v>327.6573833387047</v>
+        <v>327.6573833387042</v>
       </c>
       <c r="G41" t="n">
-        <v>143.9074439322733</v>
+        <v>143.9074439322735</v>
       </c>
       <c r="H41" t="n">
-        <v>32.81360321867967</v>
+        <v>32.81360321867975</v>
       </c>
       <c r="I41" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J41" t="n">
-        <v>188.7070453723071</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K41" t="n">
-        <v>308.4406302914809</v>
+        <v>258.572280818976</v>
       </c>
       <c r="L41" t="n">
-        <v>357.0678115916055</v>
+        <v>541.7438575864057</v>
       </c>
       <c r="M41" t="n">
-        <v>674.5952753945676</v>
+        <v>859.2713213893678</v>
       </c>
       <c r="N41" t="n">
-        <v>986.6230559823331</v>
+        <v>1120.453440998258</v>
       </c>
       <c r="O41" t="n">
-        <v>1022.879060633661</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="P41" t="n">
-        <v>1244.219544643156</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="Q41" t="n">
-        <v>1391.25384111689</v>
+        <v>1391.253841116891</v>
       </c>
       <c r="R41" t="n">
-        <v>1433.624336596319</v>
+        <v>1433.624336596321</v>
       </c>
       <c r="S41" t="n">
-        <v>1443.202183948052</v>
+        <v>1443.202183948053</v>
       </c>
       <c r="T41" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U41" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V41" t="n">
         <v>1359.374109037054</v>
@@ -7454,7 +7454,7 @@
         <v>1133.260859976083</v>
       </c>
       <c r="Y41" t="n">
-        <v>986.4204189221492</v>
+        <v>986.4204189221493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J42" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K42" t="n">
-        <v>68.15819651378456</v>
+        <v>68.1581965137846</v>
       </c>
       <c r="L42" t="n">
-        <v>186.8945068160897</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M42" t="n">
-        <v>370.2088447263874</v>
+        <v>370.2088447263876</v>
       </c>
       <c r="N42" t="n">
-        <v>576.7948572592139</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O42" t="n">
-        <v>710.0336165128759</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P42" t="n">
-        <v>794.8929656043383</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.7959271933534</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="R42" t="n">
-        <v>788.7959271933534</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="S42" t="n">
-        <v>788.7959271933534</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="T42" t="n">
-        <v>788.7959271933534</v>
+        <v>577.7771997412501</v>
       </c>
       <c r="U42" t="n">
-        <v>549.1720484311666</v>
+        <v>338.1533209790633</v>
       </c>
       <c r="V42" t="n">
-        <v>545.3989270772812</v>
+        <v>95.0736028826974</v>
       </c>
       <c r="W42" t="n">
-        <v>427.1950120642661</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X42" t="n">
-        <v>207.6870176809625</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.6870176809625</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="L43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="M43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="N43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="O43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="P43" t="n">
-        <v>143.6313550206554</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.6313550206554</v>
+        <v>138.2044897819594</v>
       </c>
       <c r="R43" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="S43" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="T43" t="n">
-        <v>143.6313550206554</v>
+        <v>143.6313550206557</v>
       </c>
       <c r="U43" t="n">
-        <v>91.36597356581895</v>
+        <v>91.36597356581913</v>
       </c>
       <c r="V43" t="n">
-        <v>83.08770648562287</v>
+        <v>83.08770648562297</v>
       </c>
       <c r="W43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="44">
@@ -7622,64 +7622,64 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>847.8611162930804</v>
+        <v>847.8611162930807</v>
       </c>
       <c r="C44" t="n">
-        <v>733.4247863879057</v>
+        <v>733.4247863879059</v>
       </c>
       <c r="D44" t="n">
         <v>631.5473834917731</v>
       </c>
       <c r="E44" t="n">
-        <v>495.6227559295706</v>
+        <v>495.6227559295705</v>
       </c>
       <c r="F44" t="n">
-        <v>327.6573833387042</v>
+        <v>327.657383338704</v>
       </c>
       <c r="G44" t="n">
-        <v>143.9074439322734</v>
+        <v>143.9074439322737</v>
       </c>
       <c r="H44" t="n">
-        <v>32.81360321867972</v>
+        <v>32.81360321867985</v>
       </c>
       <c r="I44" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J44" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K44" t="n">
-        <v>258.572280818976</v>
+        <v>258.5722808189759</v>
       </c>
       <c r="L44" t="n">
-        <v>541.7438575864057</v>
+        <v>326.2842618307826</v>
       </c>
       <c r="M44" t="n">
-        <v>674.5952753945679</v>
+        <v>643.8117256337446</v>
       </c>
       <c r="N44" t="n">
-        <v>752.0786605150281</v>
+        <v>955.83950622151</v>
       </c>
       <c r="O44" t="n">
-        <v>1022.879060633661</v>
+        <v>1226.639906340142</v>
       </c>
       <c r="P44" t="n">
-        <v>1244.219544643156</v>
+        <v>1447.980390349637</v>
       </c>
       <c r="Q44" t="n">
-        <v>1391.25384111689</v>
+        <v>1447.980390349637</v>
       </c>
       <c r="R44" t="n">
-        <v>1433.62433659632</v>
+        <v>1447.980390349637</v>
       </c>
       <c r="S44" t="n">
-        <v>1443.202183948052</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="T44" t="n">
-        <v>1457.558237701369</v>
+        <v>1457.55823770137</v>
       </c>
       <c r="U44" t="n">
-        <v>1444.188505839171</v>
+        <v>1444.188505839172</v>
       </c>
       <c r="V44" t="n">
         <v>1359.374109037054</v>
@@ -7688,10 +7688,10 @@
         <v>1257.371146359568</v>
       </c>
       <c r="X44" t="n">
-        <v>1133.260859976082</v>
+        <v>1133.260859976083</v>
       </c>
       <c r="Y44" t="n">
-        <v>986.4204189221487</v>
+        <v>986.4204189221491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K45" t="n">
-        <v>68.15819651378456</v>
+        <v>68.1581965137846</v>
       </c>
       <c r="L45" t="n">
-        <v>186.8945068160897</v>
+        <v>186.8945068160898</v>
       </c>
       <c r="M45" t="n">
-        <v>370.2088447263874</v>
+        <v>370.2088447263876</v>
       </c>
       <c r="N45" t="n">
-        <v>576.7948572592139</v>
+        <v>576.794857259214</v>
       </c>
       <c r="O45" t="n">
-        <v>710.0336165128759</v>
+        <v>710.0336165128761</v>
       </c>
       <c r="P45" t="n">
-        <v>794.8929656043383</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="Q45" t="n">
-        <v>794.8929656043383</v>
+        <v>794.8929656043385</v>
       </c>
       <c r="R45" t="n">
-        <v>794.8929656043383</v>
+        <v>659.2218077712267</v>
       </c>
       <c r="S45" t="n">
-        <v>794.8929656043383</v>
+        <v>541.9467341398083</v>
       </c>
       <c r="T45" t="n">
-        <v>577.7771997412499</v>
+        <v>541.9467341398083</v>
       </c>
       <c r="U45" t="n">
-        <v>338.1533209790631</v>
+        <v>541.629452120102</v>
       </c>
       <c r="V45" t="n">
-        <v>278.7511316645592</v>
+        <v>298.5497340237361</v>
       </c>
       <c r="W45" t="n">
-        <v>248.659159137331</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="C46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="D46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="E46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="F46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="G46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="H46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="I46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="J46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="K46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="L46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="M46" t="n">
-        <v>95.64020397329379</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="N46" t="n">
-        <v>95.64020397329379</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="O46" t="n">
-        <v>95.64020397329379</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="P46" t="n">
-        <v>95.64020397329379</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.64020397329379</v>
+        <v>138.2044897819593</v>
       </c>
       <c r="R46" t="n">
-        <v>129.0325841952404</v>
+        <v>138.2044897819593</v>
       </c>
       <c r="S46" t="n">
-        <v>130.5877496168252</v>
+        <v>138.2044897819593</v>
       </c>
       <c r="T46" t="n">
-        <v>143.6313550206556</v>
+        <v>143.6313550206559</v>
       </c>
       <c r="U46" t="n">
-        <v>91.36597356581906</v>
+        <v>91.36597356581932</v>
       </c>
       <c r="V46" t="n">
-        <v>83.08770648562293</v>
+        <v>83.08770648562307</v>
       </c>
       <c r="W46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="X46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.15116475402738</v>
+        <v>29.1511647540274</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8769,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9724314025781</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L12" t="n">
         <v>120.3688767846161</v>
       </c>
       <c r="M12" t="n">
-        <v>203.4325914874595</v>
+        <v>201.0298375196354</v>
       </c>
       <c r="N12" t="n">
-        <v>186.3600727412998</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O12" t="n">
         <v>207.4598856512405</v>
@@ -9006,19 +9006,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9724314025781</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L15" t="n">
         <v>120.3688767846161</v>
       </c>
       <c r="M15" t="n">
-        <v>203.4325914874595</v>
+        <v>201.0298375196354</v>
       </c>
       <c r="N15" t="n">
         <v>188.7628267091238</v>
       </c>
       <c r="O15" t="n">
-        <v>205.0571316834165</v>
+        <v>207.4598856512405</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9243,16 +9243,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9724314025781</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L18" t="n">
         <v>120.3688767846161</v>
       </c>
       <c r="M18" t="n">
-        <v>203.4325914874595</v>
+        <v>201.0298375196354</v>
       </c>
       <c r="N18" t="n">
-        <v>186.3600727412998</v>
+        <v>188.7628267091238</v>
       </c>
       <c r="O18" t="n">
         <v>207.4598856512405</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9724314025781</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L21" t="n">
         <v>120.3688767846161</v>
@@ -9717,16 +9717,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9724314025781</v>
+        <v>131.972431402578</v>
       </c>
       <c r="L24" t="n">
         <v>120.3688767846161</v>
       </c>
       <c r="M24" t="n">
-        <v>203.4325914874593</v>
+        <v>201.0298375196351</v>
       </c>
       <c r="N24" t="n">
-        <v>186.3600727412995</v>
+        <v>188.7628267091236</v>
       </c>
       <c r="O24" t="n">
         <v>207.4598856512404</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>133.6882907745849</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C11" t="n">
         <v>146.7164983584926</v>
@@ -23273,10 +23273,10 @@
         <v>215.3369717647359</v>
       </c>
       <c r="H11" t="n">
-        <v>143.4074340588273</v>
+        <v>56.5857259921782</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.05034583237529</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>30.56907651981669</v>
+        <v>43.43048817352837</v>
       </c>
       <c r="W11" t="n">
-        <v>47.58575673643156</v>
+        <v>134.4074648030806</v>
       </c>
       <c r="X11" t="n">
         <v>156.2937152720199</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>133.6882907745848</v>
+        <v>83.776533288498</v>
       </c>
       <c r="C14" t="n">
-        <v>146.7164983584925</v>
+        <v>146.7164983584926</v>
       </c>
       <c r="D14" t="n">
         <v>134.283160619541</v>
@@ -23507,7 +23507,7 @@
         <v>199.7102506173272</v>
       </c>
       <c r="G14" t="n">
-        <v>215.3369717647359</v>
+        <v>178.4270211841732</v>
       </c>
       <c r="H14" t="n">
         <v>143.4074340588273</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>30.56907651981666</v>
+        <v>117.3907845864658</v>
       </c>
       <c r="W14" t="n">
-        <v>47.58575673643153</v>
+        <v>47.58575673643156</v>
       </c>
       <c r="X14" t="n">
         <v>156.2937152720199</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272434.2066155725</v>
+        <v>272434.2066155726</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>104848.2026895066</v>
+      </c>
+      <c r="H3" t="n">
         <v>9.094947017729282e-11</v>
-      </c>
-      <c r="G3" t="n">
-        <v>104848.2026895067</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>160763.5855583198</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>104848.2026895068</v>
+        <v>104848.2026895066</v>
       </c>
       <c r="M3" t="n">
-        <v>19259.37825850235</v>
+        <v>19259.37825850244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65423.24367203553</v>
+        <v>65423.2436720355</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,10 +26430,10 @@
         <v>372146.5274278299</v>
       </c>
       <c r="G4" t="n">
-        <v>442672.8937875656</v>
+        <v>442672.8937875655</v>
       </c>
       <c r="H4" t="n">
-        <v>442672.8937875656</v>
+        <v>442672.8937875655</v>
       </c>
       <c r="I4" t="n">
         <v>442672.8937875655</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24657.58202785255</v>
+        <v>24657.58202785256</v>
       </c>
       <c r="F5" t="n">
-        <v>24657.58202785255</v>
+        <v>24657.58202785256</v>
       </c>
       <c r="G5" t="n">
         <v>35675.68646773272</v>
       </c>
       <c r="H5" t="n">
-        <v>35675.68646773272</v>
+        <v>35675.68646773273</v>
       </c>
       <c r="I5" t="n">
         <v>35675.68646773272</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.53836228576</v>
+        <v>47598.53836228578</v>
       </c>
       <c r="L5" t="n">
         <v>47598.53836228578</v>
       </c>
       <c r="M5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="N5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035106</v>
       </c>
       <c r="O5" t="n">
-        <v>44343.67435035105</v>
+        <v>44343.67435035107</v>
       </c>
       <c r="P5" t="n">
         <v>44343.67435035105</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-511458.2635302753</v>
+        <v>-511462.7299144805</v>
       </c>
       <c r="C6" t="n">
-        <v>-511458.2635302753</v>
+        <v>-511462.7299144805</v>
       </c>
       <c r="D6" t="n">
-        <v>-511458.2635302753</v>
+        <v>-511462.7299144805</v>
       </c>
       <c r="E6" t="n">
-        <v>-669238.3160712549</v>
+        <v>-669547.6372208502</v>
       </c>
       <c r="F6" t="n">
-        <v>-396804.1094556826</v>
+        <v>-397113.4306052776</v>
       </c>
       <c r="G6" t="n">
-        <v>-583196.782944805</v>
+        <v>-583196.7829448049</v>
       </c>
       <c r="H6" t="n">
-        <v>-478348.5802552983</v>
+        <v>-478348.5802552984</v>
       </c>
       <c r="I6" t="n">
         <v>-478348.5802552982</v>
@@ -26546,13 +26546,13 @@
         <v>-650618.9316180574</v>
       </c>
       <c r="K6" t="n">
-        <v>-489855.3460597376</v>
+        <v>-489855.3460597375</v>
       </c>
       <c r="L6" t="n">
-        <v>-594703.5487492444</v>
+        <v>-594703.5487492442</v>
       </c>
       <c r="M6" t="n">
-        <v>-505470.5254358336</v>
+        <v>-505470.5254358337</v>
       </c>
       <c r="N6" t="n">
         <v>-486211.1471773312</v>
@@ -26561,7 +26561,7 @@
         <v>-551634.3908493668</v>
       </c>
       <c r="P6" t="n">
-        <v>-486211.1471773312</v>
+        <v>-486211.1471773311</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>203.4889990226862</v>
       </c>
       <c r="F2" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="G2" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="H2" t="n">
         <v>334.5492523845696</v>
@@ -26707,25 +26707,25 @@
         <v>334.5492523845696</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K2" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="M2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="F3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="G3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="H3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="I3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="J3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="K3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="L3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="M3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="N3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="O3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="P3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>86.82170806664892</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2112674919914</v>
+        <v>451.2112674919916</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2112674919914</v>
+        <v>451.2112674919916</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2112674919914</v>
+        <v>451.2112674919916</v>
       </c>
       <c r="M4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="N4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="O4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253425</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3895594253423</v>
+        <v>364.3895594253425</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>203.4889990226862</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>131.0602533618833</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.13686837721616e-13</v>
       </c>
-      <c r="G2" t="n">
-        <v>131.0602533618834</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>81.77905459004435</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>131.0602533618833</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.07422282312805</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>81.77905459004438</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>131.0602533618835</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.07422282312794</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.77905459004441</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2066751633981</v>
+        <v>104.2066751633982</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>364.3895594253424</v>
+        <v>364.3895594253427</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>203.4889990226862</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>131.0602533618833</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.13686837721616e-13</v>
       </c>
-      <c r="L2" t="n">
-        <v>131.0602533618834</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.77905459004438</v>
+        <v>81.77905459004435</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28111,31 +28111,31 @@
         <v>203.4889990226862</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74597459497522</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K11" t="n">
-        <v>5.175029699350048</v>
+        <v>5.17502969935002</v>
       </c>
       <c r="L11" t="n">
-        <v>37.70334311702827</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.000426919520962</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.555662490426641</v>
+        <v>8.555662490426599</v>
       </c>
       <c r="O11" t="n">
-        <v>37.31758481556091</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.33728430081823</v>
+        <v>100.1589923674673</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.39403938744567</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R11" t="n">
-        <v>203.4889990226862</v>
+        <v>194.6886458081472</v>
       </c>
       <c r="S11" t="n">
         <v>203.4889990226862</v>
@@ -28190,7 +28190,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,25 +28211,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3144462547806</v>
+        <v>47.49273818813157</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4695228506099</v>
+        <v>144.248628873346</v>
       </c>
       <c r="T12" t="n">
-        <v>128.1229001378085</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="U12" t="n">
-        <v>150.4059319079158</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="V12" t="n">
-        <v>174.2894394660978</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="W12" t="n">
-        <v>203.4889990226862</v>
+        <v>179.8828755103625</v>
       </c>
       <c r="X12" t="n">
         <v>203.4889990226862</v>
@@ -28275,19 +28275,19 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L13" t="n">
-        <v>118.1597677501405</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3588731985201</v>
+        <v>111.1805812651692</v>
       </c>
       <c r="N13" t="n">
         <v>102.5042743723751</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70523308254135</v>
+        <v>89.86730933724201</v>
       </c>
       <c r="P13" t="n">
-        <v>110.97868314464</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q13" t="n">
         <v>203.4889990226862</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="C14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="D14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="E14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="F14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="G14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="H14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="I14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74597459497522</v>
+        <v>162.5676826616243</v>
       </c>
       <c r="K14" t="n">
-        <v>38.55213897624963</v>
+        <v>5.17502969935002</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>3.000426919520962</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50.19948114611626</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33728430081823</v>
+        <v>13.33728430081819</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39403938744567</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.2443082985738</v>
       </c>
       <c r="S14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="T14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="V14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="W14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="X14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="Y14" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.3144462547806</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4695228506099</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T15" t="n">
-        <v>128.1229001378085</v>
+        <v>188.3598357339068</v>
       </c>
       <c r="U15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="V15" t="n">
-        <v>203.4889990226863</v>
+        <v>153.8272128487532</v>
       </c>
       <c r="W15" t="n">
-        <v>179.8828755103625</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="X15" t="n">
-        <v>150.8485638905261</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
     </row>
     <row r="16">
@@ -28500,58 +28500,58 @@
         <v>168.6953014514208</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7757334795251</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="I16" t="n">
         <v>164.6883657250528</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8526328486804</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="K16" t="n">
-        <v>153.2157698435604</v>
+        <v>66.39406177691129</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M16" t="n">
-        <v>111.1805812651692</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N16" t="n">
-        <v>58.75327650699572</v>
+        <v>102.5042743723751</v>
       </c>
       <c r="O16" t="n">
-        <v>123.5269411491904</v>
+        <v>45.24801963329337</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81660688993935</v>
+        <v>144.6383149565884</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="S16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="T16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="U16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="V16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="W16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="X16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.4889990226863</v>
+        <v>203.4889990226862</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="C17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="D17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="F17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="G17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="H17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5393448550616</v>
+        <v>240.5393448550615</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74597459497522</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K17" t="n">
-        <v>5.175029699350048</v>
+        <v>5.17502969935002</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.33728430081823</v>
+        <v>13.33728430081819</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.39403938744567</v>
+        <v>170.6755364844475</v>
       </c>
       <c r="R17" t="n">
         <v>194.1150504928036</v>
@@ -28615,22 +28615,22 @@
         <v>227.2389374904774</v>
       </c>
       <c r="T17" t="n">
-        <v>309.2341744444149</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495653186316</v>
       </c>
       <c r="V17" t="n">
-        <v>330.0090414149224</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="W17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="X17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.5492523845696</v>
+        <v>334.5492523845695</v>
       </c>
     </row>
     <row r="18">
@@ -28664,7 +28664,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R18" t="n">
         <v>47.49273818813157</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4695228506099</v>
+        <v>104.6478147839608</v>
       </c>
       <c r="T18" t="n">
-        <v>144.5081157662282</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U18" t="n">
-        <v>150.4059319079158</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V18" t="n">
         <v>153.8272128487532</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>146.9117256689211</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7586570094679</v>
@@ -28819,13 +28819,13 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5393448550616</v>
+        <v>240.5393448550615</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74597459497522</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K20" t="n">
-        <v>5.175029699350048</v>
+        <v>5.17502969935002</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,25 +28834,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8.555662490426641</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>50.19948114611623</v>
       </c>
       <c r="P20" t="n">
-        <v>13.33728430081823</v>
+        <v>13.33728430081819</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.39403938744567</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R20" t="n">
         <v>194.1150504928036</v>
       </c>
       <c r="S20" t="n">
-        <v>314.0606455571265</v>
+        <v>272.9904222167804</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9860616931096</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U20" t="n">
         <v>250.1495653186316</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>72.35060700992946</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.3144462547806</v>
       </c>
       <c r="S21" t="n">
-        <v>104.6478147839608</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T21" t="n">
         <v>144.5081157662282</v>
       </c>
       <c r="U21" t="n">
-        <v>150.4059319079158</v>
+        <v>237.2276399745649</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>179.8828755103625</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>130.4912063728215</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>136.5625780673765</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M22" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7586570094679</v>
@@ -29056,13 +29056,13 @@
         <v>334.5492523845696</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5393448550616</v>
+        <v>240.5393448550615</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74597459497522</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K23" t="n">
-        <v>42.37085193522627</v>
+        <v>5.17502969935002</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>8.555662490426485</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>50.1994811461161</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.33728430081823</v>
+        <v>22.46654210658797</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.39403938744567</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1150504928036</v>
+        <v>280.9367585594525</v>
       </c>
       <c r="S23" t="n">
         <v>227.2389374904774</v>
@@ -29138,7 +29138,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.036068026875117</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>47.49273818813172</v>
@@ -29168,7 +29168,7 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T24" t="n">
-        <v>128.1229001378086</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U24" t="n">
         <v>150.405931907916</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>179.8828755103627</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>146.8764220012414</v>
       </c>
       <c r="Y24" t="n">
-        <v>146.9117256689213</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29223,19 +29223,19 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M25" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7586570094679</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="M26" t="n">
-        <v>212.839307951927</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519283</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.28021930011755</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>107.8823472747351</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="28">
@@ -29460,46 +29460,46 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33805968349143</v>
+        <v>71.24119115347415</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N28" t="n">
-        <v>88.06428419118451</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8393079519278</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8393079519278</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="29">
@@ -29557,7 +29557,7 @@
         <v>212.8393079519277</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8393079519277</v>
+        <v>212.8393079519282</v>
       </c>
       <c r="S29" t="n">
         <v>212.8393079519277</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.0860525443204</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4695228506099</v>
       </c>
       <c r="T30" t="n">
         <v>212.8393079519277</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8393079519277</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.8393079519277</v>
-      </c>
-      <c r="X30" t="n">
-        <v>122.6013757276796</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8393079519277</v>
@@ -29697,22 +29697,22 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N31" t="n">
-        <v>166.6617884794508</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81660688993935</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8393079519277</v>
+        <v>208.7958290636639</v>
       </c>
       <c r="R31" t="n">
         <v>203.1838537831904</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8393079519265</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3144462547806</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8393079519278</v>
+        <v>201.1262374248264</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>97.28021930011721</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8393079519278</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="34">
@@ -29934,19 +29934,19 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N34" t="n">
-        <v>97.71973835992135</v>
+        <v>76.60836455252407</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70523308254135</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8393079519278</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7586570094679</v>
@@ -29955,25 +29955,25 @@
         <v>203.1838537831904</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8393079519278</v>
+        <v>212.8393079519277</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J35" t="n">
-        <v>236.9135307750558</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L35" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>117.346208138369</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q35" t="n">
-        <v>126.1180447692229</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R35" t="n">
-        <v>236.9135307750558</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S35" t="n">
-        <v>236.9135307750558</v>
+        <v>227.2389374904774</v>
       </c>
       <c r="T35" t="n">
-        <v>236.9135307750558</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>130.6682914742294</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380757353064</v>
@@ -30086,7 +30086,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.43434541178266</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V36" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W36" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30171,40 +30171,40 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M37" t="n">
-        <v>24.3588731985201</v>
+        <v>106.2657520315319</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O37" t="n">
-        <v>117.0412377523359</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S37" t="n">
-        <v>236.9135307750558</v>
+        <v>235.3426566118387</v>
       </c>
       <c r="T37" t="n">
         <v>223.7381717812877</v>
       </c>
       <c r="U37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W37" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="K38" t="n">
-        <v>5.175029699350048</v>
+        <v>47.39859866635668</v>
       </c>
       <c r="L38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="M38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N38" t="n">
-        <v>145.1186727517409</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.9135307750558</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S38" t="n">
         <v>227.2389374904774</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4124663777658</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="39">
@@ -30323,7 +30323,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.036068026875117</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>98.84228530935349</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4695228506099</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V39" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>61.80265164679562</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,7 +30399,7 @@
         <v>165.7757334795251</v>
       </c>
       <c r="I40" t="n">
-        <v>231.8490114010793</v>
+        <v>164.6883657250528</v>
       </c>
       <c r="J40" t="n">
         <v>119.8526328486804</v>
@@ -30408,40 +30408,40 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M40" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81660688993935</v>
+        <v>173.4531627148164</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7586570094679</v>
       </c>
       <c r="R40" t="n">
-        <v>236.9135307750558</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S40" t="n">
-        <v>236.9135307750558</v>
+        <v>235.3426566118387</v>
       </c>
       <c r="T40" t="n">
-        <v>236.9135307750558</v>
+        <v>223.7381717812877</v>
       </c>
       <c r="U40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W40" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="C41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="D41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="E41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="F41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="G41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="H41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="I41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9135307750558</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K41" t="n">
-        <v>126.1180447692225</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="M41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="N41" t="n">
-        <v>236.9135307750558</v>
+        <v>185.5542772610405</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="P41" t="n">
-        <v>236.9135307750558</v>
+        <v>13.33728430081819</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.9135307750558</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="S41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="T41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="U41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R42" t="n">
         <v>134.3144462547806</v>
@@ -30590,19 +30590,19 @@
         <v>191.4695228506099</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446082044576</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>236.9135307750558</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>149.6827077141266</v>
+        <v>201.4413698296283</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30645,25 +30645,25 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M43" t="n">
-        <v>24.3588731985201</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N43" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O43" t="n">
-        <v>152.3417889074181</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7586570094679</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="R43" t="n">
-        <v>203.1838537831904</v>
+        <v>208.6655358424796</v>
       </c>
       <c r="S43" t="n">
         <v>235.3426566118387</v>
@@ -30672,13 +30672,13 @@
         <v>223.7381717812877</v>
       </c>
       <c r="U43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="V43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="W43" t="n">
-        <v>236.9135307750558</v>
+        <v>236.9135307750557</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="C44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="D44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="E44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="F44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="G44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="H44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="I44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="J44" t="n">
-        <v>75.74597459497522</v>
+        <v>75.74597459497521</v>
       </c>
       <c r="K44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="L44" t="n">
-        <v>236.9135307750557</v>
+        <v>19.27757546634552</v>
       </c>
       <c r="M44" t="n">
-        <v>50.37207017424784</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="O44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="P44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.9135307750557</v>
+        <v>88.39403938744566</v>
       </c>
       <c r="R44" t="n">
-        <v>236.9135307750557</v>
+        <v>194.1150504928036</v>
       </c>
       <c r="S44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="T44" t="n">
-        <v>236.9135307750557</v>
+        <v>222.4124663777658</v>
       </c>
       <c r="U44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="X44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
     </row>
     <row r="45">
@@ -30797,7 +30797,7 @@
         <v>107.1386269945785</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85834769223183</v>
+        <v>51.85834769223182</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.036068026875117</v>
+        <v>6.036068026875103</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3144462547806</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4695228506099</v>
+        <v>75.36719995550564</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446082044576</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V45" t="n">
-        <v>181.8407534940434</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.9135307750557</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30882,40 +30882,40 @@
         <v>66.39406177691129</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33805968349143</v>
+        <v>31.33805968349142</v>
       </c>
       <c r="M46" t="n">
-        <v>91.51951887454679</v>
+        <v>24.35887319852009</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68256630572602</v>
+        <v>15.682566305726</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70523308254135</v>
+        <v>36.70523308254133</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81660688993935</v>
+        <v>57.81660688993934</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7586570094679</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="R46" t="n">
-        <v>236.9135307750557</v>
+        <v>203.1838537831904</v>
       </c>
       <c r="S46" t="n">
-        <v>236.9135307750557</v>
+        <v>235.3426566118387</v>
       </c>
       <c r="T46" t="n">
-        <v>236.9135307750557</v>
+        <v>229.2198538405773</v>
       </c>
       <c r="U46" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="V46" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="W46" t="n">
-        <v>236.9135307750557</v>
+        <v>236.9135307750556</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H11" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I11" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O11" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P11" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S11" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I12" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K12" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M12" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P12" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R12" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474622761746201</v>
@@ -31911,46 +31911,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I13" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K13" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O13" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R13" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H14" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I14" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O14" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P14" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S14" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I15" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K15" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M15" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P15" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R15" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474622761746201</v>
@@ -32148,46 +32148,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H16" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I16" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K16" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O16" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P16" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R16" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H17" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I17" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O17" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P17" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S17" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I18" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K18" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M18" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P18" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R18" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474622761746201</v>
@@ -32385,46 +32385,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H19" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I19" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K19" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O19" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P19" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R19" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H20" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I20" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O20" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P20" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S20" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I21" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K21" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M21" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P21" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R21" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474622761746201</v>
@@ -32622,46 +32622,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H22" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I22" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K22" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O22" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P22" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R22" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H23" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I23" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O23" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P23" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S23" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I24" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K24" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M24" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P24" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R24" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474622761746201</v>
@@ -32859,46 +32859,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H25" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I25" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K25" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O25" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P25" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R25" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H26" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I26" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O26" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P26" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S26" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I27" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K27" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M27" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P27" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R27" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474622761746201</v>
@@ -33096,46 +33096,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H28" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I28" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K28" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O28" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P28" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R28" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H29" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I29" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O29" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P29" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S29" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I30" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K30" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M30" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P30" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R30" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474622761746201</v>
@@ -33333,46 +33333,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H31" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I31" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K31" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O31" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R31" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H32" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I32" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O32" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P32" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S32" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I33" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K33" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M33" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P33" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R33" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474622761746201</v>
@@ -33570,46 +33570,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H34" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I34" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K34" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O34" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P34" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R34" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H35" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I35" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O35" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P35" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S35" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I36" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J36" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K36" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M36" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P36" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R36" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474622761746201</v>
@@ -33807,46 +33807,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H37" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I37" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K37" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O37" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P37" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R37" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H38" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I38" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O38" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P38" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S38" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I39" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J39" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K39" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M39" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P39" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R39" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474622761746201</v>
@@ -34044,46 +34044,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H40" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I40" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K40" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O40" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P40" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R40" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H41" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I41" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O41" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P41" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S41" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I42" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J42" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K42" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M42" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P42" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R42" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474622761746201</v>
@@ -34281,46 +34281,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H43" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I43" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K43" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O43" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P43" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R43" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4189213071895399</v>
+        <v>0.4189213071895401</v>
       </c>
       <c r="H44" t="n">
-        <v>4.290277837254877</v>
+        <v>4.290277837254879</v>
       </c>
       <c r="I44" t="n">
-        <v>16.15046369542475</v>
+        <v>16.15046369542476</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55542229607825</v>
+        <v>35.55542229607826</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28836122941148</v>
+        <v>53.28836122941151</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10892418431338</v>
+        <v>66.10892418431341</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55891598104536</v>
+        <v>73.55891598104539</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74917614509764</v>
+        <v>74.74917614509768</v>
       </c>
       <c r="O44" t="n">
-        <v>70.58352739673165</v>
+        <v>70.58352739673168</v>
       </c>
       <c r="P44" t="n">
-        <v>60.24140762548987</v>
+        <v>60.24140762548991</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.23878831176446</v>
+        <v>45.23878831176448</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31506556274496</v>
+        <v>26.31506556274497</v>
       </c>
       <c r="S44" t="n">
-        <v>9.54616928758165</v>
+        <v>9.546169287581655</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833828022222212</v>
+        <v>1.833828022222213</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351370457516319</v>
+        <v>0.03351370457516321</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241426597854224</v>
+        <v>0.2241426597854225</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164746214243422</v>
+        <v>2.164746214243423</v>
       </c>
       <c r="I45" t="n">
-        <v>7.717192453138447</v>
+        <v>7.717192453138452</v>
       </c>
       <c r="J45" t="n">
-        <v>21.1765659405166</v>
+        <v>21.17656594051661</v>
       </c>
       <c r="K45" t="n">
-        <v>36.1941241461399</v>
+        <v>36.19412414613992</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66746654683043</v>
+        <v>48.66746654683045</v>
       </c>
       <c r="M45" t="n">
-        <v>56.79263796405198</v>
+        <v>56.79263796405201</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29577009919195</v>
+        <v>58.29577009919198</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32924063763074</v>
+        <v>53.32924063763077</v>
       </c>
       <c r="P45" t="n">
-        <v>42.80141720060404</v>
+        <v>42.80141720060406</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.61161390524094</v>
+        <v>28.61161390524095</v>
       </c>
       <c r="R45" t="n">
         <v>13.91650654351948</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163351597330102</v>
+        <v>4.163351597330104</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034522120298382</v>
+        <v>0.9034522120298387</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474622761746201</v>
@@ -34518,46 +34518,46 @@
         <v>0.1879136765241606</v>
       </c>
       <c r="H46" t="n">
-        <v>1.67072341491481</v>
+        <v>1.670723414914811</v>
       </c>
       <c r="I46" t="n">
-        <v>5.651076744926575</v>
+        <v>5.651076744926578</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28549693025815</v>
+        <v>13.28549693025816</v>
       </c>
       <c r="K46" t="n">
-        <v>21.83215259980701</v>
+        <v>21.83215259980702</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93763878069202</v>
+        <v>27.93763878069203</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45632294823727</v>
+        <v>29.45632294823729</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75591742664724</v>
+        <v>28.75591742664726</v>
       </c>
       <c r="O46" t="n">
-        <v>26.56074402361499</v>
+        <v>26.56074402361501</v>
       </c>
       <c r="P46" t="n">
-        <v>22.7273050225221</v>
+        <v>22.72730502252211</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73520794967312</v>
+        <v>15.73520794967313</v>
       </c>
       <c r="R46" t="n">
-        <v>8.449282218986344</v>
+        <v>8.449282218986349</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274822889971051</v>
+        <v>3.274822889971053</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8029038906032312</v>
+        <v>0.8029038906032316</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024983690131786</v>
+        <v>0.01024983690131787</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82170806664908</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M11" t="n">
-        <v>86.82170806664908</v>
+        <v>83.82128114712815</v>
       </c>
       <c r="N11" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O11" t="n">
-        <v>73.93981173609373</v>
+        <v>36.62222692053285</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.37394852988265</v>
+        <v>0.573595315343613</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>84.41895409882505</v>
+      </c>
+      <c r="N12" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="N12" t="n">
-        <v>84.41895409882505</v>
       </c>
       <c r="O12" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P12" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,25 +35571,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>53.16207625470066</v>
       </c>
       <c r="P13" t="n">
-        <v>53.16207625470066</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>76.73034201321838</v>
+        <v>76.73034201321839</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3051452394958183</v>
+        <v>0.3051452394958236</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="K14" t="n">
-        <v>33.37710927689958</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11836494962081</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M14" t="n">
-        <v>86.82170806664908</v>
+        <v>83.82128114712815</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26604557622244</v>
+        <v>78.26604557622248</v>
       </c>
       <c r="O14" t="n">
-        <v>86.82170806664908</v>
+        <v>36.62222692053285</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.373948529882679</v>
+        <v>9.129257805770207</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>86.82170806664908</v>
+        <v>84.41895409882505</v>
       </c>
       <c r="N15" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="O15" t="n">
-        <v>84.41895409882503</v>
+        <v>86.82170806664908</v>
       </c>
       <c r="P15" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,37 +35796,37 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.71326554316118</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>83.63636617400589</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
+        <v>8.542786550752036</v>
+      </c>
+      <c r="P16" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="N16" t="n">
-        <v>43.0707102012697</v>
-      </c>
-      <c r="O16" t="n">
-        <v>86.82170806664908</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3051452394958467</v>
+        <v>0.3051452394958236</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11836494962081</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M17" t="n">
-        <v>83.82128114712812</v>
+        <v>83.82128114712815</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26604557622244</v>
+        <v>78.26604557622248</v>
       </c>
       <c r="O17" t="n">
-        <v>36.62222692053282</v>
+        <v>36.62222692053285</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>82.2814970970018</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>86.82170806664908</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.129257805770379</v>
+        <v>13.6694687754175</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>84.41895409882505</v>
+      </c>
+      <c r="N18" t="n">
         <v>86.82170806664908</v>
-      </c>
-      <c r="N18" t="n">
-        <v>84.41895409882505</v>
       </c>
       <c r="O18" t="n">
         <v>86.82170806664908</v>
       </c>
       <c r="P18" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,17 +36124,17 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11836494962081</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M20" t="n">
-        <v>83.82128114712812</v>
+        <v>83.82128114712815</v>
       </c>
       <c r="N20" t="n">
+        <v>78.26604557622248</v>
+      </c>
+      <c r="O20" t="n">
         <v>86.82170806664908</v>
       </c>
-      <c r="O20" t="n">
-        <v>36.62222692053282</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.82170806664908</v>
+        <v>45.75148472630308</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5735953153437279</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>86.82170806664908</v>
       </c>
       <c r="P21" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>37.19582223587622</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11836494962081</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M23" t="n">
-        <v>83.82128114712812</v>
+        <v>83.82128114712815</v>
       </c>
       <c r="N23" t="n">
+        <v>78.26604557622248</v>
+      </c>
+      <c r="O23" t="n">
+        <v>36.62222692053285</v>
+      </c>
+      <c r="P23" t="n">
+        <v>9.129257805769775</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>86.82170806664892</v>
-      </c>
-      <c r="O23" t="n">
-        <v>86.82170806664892</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>84.41895409882474</v>
+      </c>
+      <c r="N24" t="n">
         <v>86.82170806664892</v>
-      </c>
-      <c r="N24" t="n">
-        <v>84.41895409882474</v>
       </c>
       <c r="O24" t="n">
         <v>86.82170806664892</v>
       </c>
       <c r="P24" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>261.9576729015486</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6605890990551</v>
+        <v>296.6605890990559</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1053535281502</v>
+        <v>291.1053535281508</v>
       </c>
       <c r="O26" t="n">
         <v>249.4615348724606</v>
@@ -36616,7 +36616,7 @@
         <v>124.4452685644821</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72425745912417</v>
+        <v>18.72425745912416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L27" t="n">
         <v>119.9356669720255</v>
@@ -36683,13 +36683,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O27" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.90313146998274</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.3817178854585</v>
+        <v>197.1567416462017</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0227010619884</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.655454168737339</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>207.6642782525777</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9576729015485</v>
+        <v>261.9576729015486</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6605890990558</v>
+        <v>296.6605890990559</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1053535281501</v>
+        <v>291.1053535281502</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4615348724605</v>
+        <v>249.4615348724606</v>
       </c>
       <c r="P29" t="n">
         <v>199.5020236511095</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.445268564482</v>
+        <v>124.4452685644821</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72425745912412</v>
+        <v>18.72425745912464</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L30" t="n">
         <v>119.9356669720255</v>
@@ -36920,13 +36920,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O30" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.9792221737248</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0227010619884</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08065094245984</v>
+        <v>82.03717205419609</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0933333569526</v>
+        <v>137.0933333569525</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6642782525778</v>
+        <v>207.6642782525777</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9576729015473</v>
+        <v>261.9576729015486</v>
       </c>
       <c r="M32" t="n">
         <v>296.6605890990559</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1053535281503</v>
+        <v>291.1053535281502</v>
       </c>
       <c r="O32" t="n">
         <v>249.4615348724606</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5020236511096</v>
+        <v>199.5020236511095</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4452685644821</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72425745912423</v>
+        <v>18.72425745912415</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L33" t="n">
         <v>119.9356669720255</v>
@@ -37157,13 +37157,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O33" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.03717205419534</v>
+        <v>60.92579824679807</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1340748693864</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0227010619885</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>161.1675561800805</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L35" t="n">
-        <v>286.0318957246766</v>
+        <v>49.11836494962084</v>
       </c>
       <c r="M35" t="n">
-        <v>83.82128114712812</v>
+        <v>201.1674892854972</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26604557622244</v>
+        <v>315.1795763512782</v>
       </c>
       <c r="O35" t="n">
-        <v>273.5357576955886</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P35" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.72400538177725</v>
+        <v>148.51949138761</v>
       </c>
       <c r="R35" t="n">
-        <v>42.79848028225217</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.674593284578409</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>14.50106439728993</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L36" t="n">
         <v>119.9356669720255</v>
@@ -37394,13 +37394,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O36" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.90687883301185</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>80.33600466979455</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.72967699186533</v>
+        <v>33.72967699186525</v>
       </c>
       <c r="S37" t="n">
-        <v>1.570874163217002</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>161.1675561800805</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>42.22356896700666</v>
       </c>
       <c r="L38" t="n">
-        <v>286.0318957246766</v>
+        <v>286.0318957246765</v>
       </c>
       <c r="M38" t="n">
-        <v>320.7348119221839</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N38" t="n">
-        <v>223.3847183279634</v>
+        <v>315.1795763512782</v>
       </c>
       <c r="O38" t="n">
-        <v>36.62222692053282</v>
+        <v>36.62222692053285</v>
       </c>
       <c r="P38" t="n">
         <v>223.5762464742375</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.5194913876101</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.79848028225217</v>
+        <v>42.7984802822521</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>14.50106439728984</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L39" t="n">
         <v>119.9356669720255</v>
@@ -37631,13 +37631,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N39" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O39" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.1606456760265</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37716,19 +37716,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>115.6365558248771</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.72967699186533</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.570874163217002</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>13.17535899376804</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161.1675561800806</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>120.9430150698725</v>
+        <v>231.7385010757057</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11836494962081</v>
+        <v>286.0318957246765</v>
       </c>
       <c r="M41" t="n">
-        <v>320.7348119221839</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N41" t="n">
-        <v>315.1795763512782</v>
+        <v>263.820322837263</v>
       </c>
       <c r="O41" t="n">
-        <v>36.62222692053282</v>
+        <v>273.5357576955886</v>
       </c>
       <c r="P41" t="n">
-        <v>223.5762464742376</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>148.5194913876101</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.7984802822522</v>
+        <v>42.79848028225213</v>
       </c>
       <c r="S41" t="n">
-        <v>9.674593284578437</v>
+        <v>9.674593284578357</v>
       </c>
       <c r="T41" t="n">
-        <v>14.50106439728996</v>
+        <v>14.50106439728987</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L42" t="n">
         <v>119.9356669720255</v>
@@ -37868,13 +37868,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O42" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>115.6365558248768</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>110.1548737655879</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.4816820592892</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>231.7385010757057</v>
+        <v>231.7385010757056</v>
       </c>
       <c r="L44" t="n">
-        <v>286.0318957246765</v>
+        <v>68.39594041596636</v>
       </c>
       <c r="M44" t="n">
-        <v>134.193351321376</v>
+        <v>320.7348119221838</v>
       </c>
       <c r="N44" t="n">
-        <v>78.26604557622244</v>
+        <v>315.1795763512781</v>
       </c>
       <c r="O44" t="n">
-        <v>273.5357576955886</v>
+        <v>273.5357576955885</v>
       </c>
       <c r="P44" t="n">
-        <v>223.5762464742375</v>
+        <v>223.5762464742374</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.5194913876101</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.79848028225214</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.67459328457838</v>
+        <v>9.674593284578272</v>
       </c>
       <c r="T44" t="n">
-        <v>14.5010643972899</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.4010421815729</v>
+        <v>39.40104218157293</v>
       </c>
       <c r="L45" t="n">
         <v>119.9356669720255</v>
@@ -38105,13 +38105,13 @@
         <v>185.1659978891896</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6727399321479</v>
+        <v>208.672739932148</v>
       </c>
       <c r="O45" t="n">
         <v>134.5846053067293</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71651423380044</v>
+        <v>85.71651423380045</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>67.16064567602669</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>110.1548737655878</v>
       </c>
       <c r="R46" t="n">
-        <v>33.7296769918653</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.570874163216974</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>13.17535899376801</v>
+        <v>5.481682059289545</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
